--- a/src/innRoad/innCenter/config/TestData.xlsx
+++ b/src/innRoad/innCenter/config/TestData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Suite_Classes" sheetId="1" r:id="rId1"/>
     <sheet name="Booking_Engine" sheetId="2" r:id="rId2"/>
+    <sheet name="Seasons" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -122,12 +123,51 @@
   </si>
   <si>
     <t>GetpolicyName</t>
+  </si>
+  <si>
+    <t>Seasons</t>
+  </si>
+  <si>
+    <t>Client_id</t>
+  </si>
+  <si>
+    <t>User_ID</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>innroad</t>
+  </si>
+  <si>
+    <t>loukya</t>
+  </si>
+  <si>
+    <t>nvkgkm08</t>
+  </si>
+  <si>
+    <t>Season_Name</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Start_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Raining Season</t>
+  </si>
+  <si>
+    <t>Inactive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +240,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -208,6 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -304,6 +345,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -339,6 +397,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -515,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +621,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -555,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
@@ -679,4 +762,76 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7">
+        <v>42522</v>
+      </c>
+      <c r="G2" s="7">
+        <v>42612</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>